--- a/Bias_Score_Analysis/Bias Score.xlsx
+++ b/Bias_Score_Analysis/Bias Score.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ana\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AATechReturners\Sentimentalists\backend\SentimentalistsApp-Backend\Bias_Score_Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,7 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="TEXTBLOB" sheetId="3" r:id="rId1"/>
-    <sheet name="TEXTBLOB OLD VERSION" sheetId="1" r:id="rId2"/>
+    <sheet name="VADER" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -57,8 +57,40 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Ana Potje</author>
+  </authors>
+  <commentList>
+    <comment ref="C19" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Decide sentiment as positive, negative and neutral 
+    if sentiment_dict['compound'] &gt;= 0.05 : 
+        print("Positive") 
+    elif sentiment_dict['compound'] &lt;= - 0.05 : 
+        print("Negative") 
+    else : 
+        print("Neutral") 
+---------------------------------------------------------------------------------------------------
+https://towardsdatascience.com/sentiment-analysis-vader-or-textblob-ff25514ac540
+VADER seems to work better with things like slang, emojis, etc — whereas TextBlob performs strongly with more formal language usage.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="61">
   <si>
     <t>Website</t>
   </si>
@@ -96,36 +128,12 @@
     <t>text = TextBlob("This was a helpful example but I would prefer another one.")</t>
   </si>
   <si>
-    <t>SUBJECTIVE</t>
-  </si>
-  <si>
-    <t>OBJECTIVE</t>
-  </si>
-  <si>
     <t>https://www.bbc.co.uk/news/uk-54234084"</t>
   </si>
   <si>
-    <t>https://metro.co.uk/2020/09/21/</t>
-  </si>
-  <si>
-    <t>https://www.thetimes.co.uk/edition/news/what-happens-if-the-us-election-polls-are-wrong-svwztjvvh'</t>
-  </si>
-  <si>
-    <t>The Times</t>
-  </si>
-  <si>
     <t>https://www.breitbart.com/2020-election/2020/10/03/as-trump-battles-covid-blm-antifa-disrupt-trump-rally-in-beverly-hills/</t>
   </si>
   <si>
-    <t>Subjectivity MINUS 0.5</t>
-  </si>
-  <si>
-    <t>Then * 4</t>
-  </si>
-  <si>
-    <t>FINAL BIAS (pol *SUBJ)</t>
-  </si>
-  <si>
     <t>TEXT</t>
   </si>
   <si>
@@ -226,6 +234,45 @@
   </si>
   <si>
     <t>(*)UNS</t>
+  </si>
+  <si>
+    <t>NEG</t>
+  </si>
+  <si>
+    <t>NEU</t>
+  </si>
+  <si>
+    <t>POS</t>
+  </si>
+  <si>
+    <t>COMPOUND</t>
+  </si>
+  <si>
+    <t>POSITIVE</t>
+  </si>
+  <si>
+    <t>RATED</t>
+  </si>
+  <si>
+    <t>NEGATIVE</t>
+  </si>
+  <si>
+    <t>https://metro.co.uk/2020/10/04/boris-johnson-admits-eat-out-to-help-out-could-have-helped-spread-covid-13370357/</t>
+  </si>
+  <si>
+    <t>`</t>
+  </si>
+  <si>
+    <t>NEUTRAL</t>
+  </si>
+  <si>
+    <t>https://www.bbc.co.uk/news/uk-54234084</t>
+  </si>
+  <si>
+    <t>TB Pol</t>
+  </si>
+  <si>
+    <t>pol*su</t>
   </si>
 </sst>
 </file>
@@ -234,9 +281,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.000"/>
-    <numFmt numFmtId="169" formatCode="#,##0.0"/>
+    <numFmt numFmtId="165" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -291,8 +338,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="15">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -326,18 +391,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -378,7 +431,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -446,12 +499,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
@@ -464,54 +526,32 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="3" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="3" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="4" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="164" fontId="3" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="3" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="3" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -530,19 +570,38 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="13" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -826,7 +885,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="101" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="95" workbookViewId="0">
       <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
@@ -847,7 +906,7 @@
   <sheetData>
     <row r="1" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>0</v>
@@ -858,286 +917,286 @@
       <c r="D1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="49" t="s">
+      <c r="E1" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="49" t="s">
-        <v>24</v>
-      </c>
-      <c r="H1" s="50" t="s">
-        <v>33</v>
-      </c>
-      <c r="I1" s="34">
+      <c r="G1" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="22">
         <v>-2</v>
       </c>
-      <c r="J1" s="34">
+      <c r="J1" s="22">
         <v>-1</v>
       </c>
-      <c r="K1" s="34">
+      <c r="K1" s="22">
         <v>0</v>
       </c>
-      <c r="L1" s="34">
+      <c r="L1" s="22">
         <v>1</v>
       </c>
-      <c r="M1" s="34">
+      <c r="M1" s="22">
         <v>2</v>
       </c>
-      <c r="N1" s="62" t="s">
-        <v>36</v>
-      </c>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
+      <c r="N1" s="47" t="s">
+        <v>28</v>
+      </c>
+      <c r="O1" s="48"/>
+      <c r="P1" s="48"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="12">
+      <c r="A2" s="8">
         <v>1</v>
       </c>
-      <c r="B2" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="13" t="s">
+      <c r="B2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="14">
+      <c r="D2" s="10">
         <v>-1</v>
       </c>
-      <c r="E2" s="25">
+      <c r="E2" s="17">
         <v>1</v>
       </c>
-      <c r="F2" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="G2" s="25">
+      <c r="F2" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="17">
         <f>IF(E2&lt;0.5, E2, E2*2)</f>
         <v>2</v>
       </c>
-      <c r="H2" s="29">
-        <f>D2*G2</f>
+      <c r="H2" s="19">
+        <f t="shared" ref="H2:H15" si="0">D2*G2</f>
         <v>-2</v>
       </c>
       <c r="I2" s="7"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="64"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="46"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="12">
+      <c r="A3" s="8">
         <v>2</v>
       </c>
-      <c r="B3" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="13" t="s">
+      <c r="B3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="14">
+      <c r="D3" s="10">
         <v>1</v>
       </c>
-      <c r="E3" s="44">
+      <c r="E3" s="28">
         <v>0.3</v>
       </c>
-      <c r="F3" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="G3" s="44">
-        <f t="shared" ref="G3:G15" si="0">IF(E3&lt;0.5, E3, E3*2)</f>
+      <c r="F3" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="28">
+        <f t="shared" ref="G3:G15" si="1">IF(E3&lt;0.5, E3, E3*2)</f>
         <v>0.3</v>
       </c>
-      <c r="H3" s="29">
-        <f>D3*G3</f>
+      <c r="H3" s="19">
+        <f t="shared" si="0"/>
         <v>0.3</v>
       </c>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
       <c r="L3" s="7"/>
-      <c r="M3" s="33"/>
-      <c r="N3" s="64"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="46"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="12">
+      <c r="A4" s="8">
         <v>3</v>
       </c>
-      <c r="B4" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="14">
+      <c r="B4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="10">
         <v>0.39</v>
       </c>
-      <c r="E4" s="44">
+      <c r="E4" s="28">
         <v>0</v>
       </c>
-      <c r="F4" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="G4" s="44">
+      <c r="F4" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H4" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H4" s="29">
-        <f>D4*G4</f>
-        <v>0</v>
-      </c>
-      <c r="I4" s="32"/>
-      <c r="J4" s="32"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
       <c r="K4" s="7"/>
-      <c r="L4" s="32"/>
-      <c r="M4" s="32"/>
-      <c r="N4" s="64"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="46"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="12">
+      <c r="A5" s="8">
         <v>4</v>
       </c>
-      <c r="B5" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="14">
+      <c r="B5" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="10">
         <v>1</v>
       </c>
-      <c r="E5" s="25">
+      <c r="E5" s="17">
         <v>1</v>
       </c>
-      <c r="F5" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="G5" s="25">
+      <c r="F5" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="17">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="H5" s="19">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="H5" s="29">
-        <f>D5*G5</f>
-        <v>2</v>
-      </c>
-      <c r="I5" s="47"/>
-      <c r="J5" s="47"/>
-      <c r="K5" s="47"/>
-      <c r="L5" s="47"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="31"/>
       <c r="M5" s="7"/>
-      <c r="N5" s="64"/>
+      <c r="N5" s="46"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="12">
+      <c r="A6" s="8">
         <v>5</v>
       </c>
-      <c r="B6" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="13" t="s">
+      <c r="B6" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="10">
+        <v>0</v>
+      </c>
+      <c r="E6" s="17">
+        <v>0.6</v>
+      </c>
+      <c r="F6" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="14">
-        <v>0</v>
-      </c>
-      <c r="E6" s="25">
-        <v>0.6</v>
-      </c>
-      <c r="F6" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="G6" s="25">
-        <f t="shared" si="0"/>
+      <c r="G6" s="17">
+        <f t="shared" si="1"/>
         <v>1.2</v>
       </c>
-      <c r="H6" s="29">
-        <f>D6*G6</f>
-        <v>0</v>
-      </c>
-      <c r="I6" s="32"/>
-      <c r="J6" s="32"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="32"/>
-      <c r="M6" s="32"/>
-      <c r="N6" s="64"/>
-    </row>
-    <row r="7" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="12">
-        <v>6</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="14">
-        <v>0</v>
-      </c>
-      <c r="E7" s="22">
-        <v>0</v>
-      </c>
-      <c r="F7" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="G7" s="44">
+      <c r="H6" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H7" s="29">
-        <f>D7*G7</f>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="46"/>
+    </row>
+    <row r="7" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="8">
+        <v>6</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="10">
         <v>0</v>
       </c>
-      <c r="I7" s="47"/>
-      <c r="J7" s="47"/>
+      <c r="E7" s="15">
+        <v>0</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H7" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I7" s="31"/>
+      <c r="J7" s="31"/>
       <c r="K7" s="7"/>
-      <c r="L7" s="47"/>
-      <c r="M7" s="47"/>
-      <c r="N7" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="O7" s="56" t="s">
-        <v>37</v>
-      </c>
-      <c r="P7" s="56" t="s">
-        <v>38</v>
+      <c r="L7" s="31"/>
+      <c r="M7" s="31"/>
+      <c r="N7" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="O7" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="P7" s="40" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A8" s="17">
+      <c r="A8" s="12">
         <v>1</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="19">
+      <c r="C8" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="14">
         <v>-1.3959686147186101E-2</v>
       </c>
-      <c r="E8" s="45">
+      <c r="E8" s="29">
         <v>0.43129437229437201</v>
       </c>
-      <c r="F8" s="17"/>
-      <c r="G8" s="45">
+      <c r="F8" s="12"/>
+      <c r="G8" s="29">
+        <f t="shared" si="1"/>
+        <v>0.43129437229437201</v>
+      </c>
+      <c r="H8" s="32">
         <f t="shared" si="0"/>
-        <v>0.43129437229437201</v>
-      </c>
-      <c r="H8" s="48">
-        <f>D8*G8</f>
         <v>-6.0207340742770695E-3</v>
       </c>
-      <c r="I8" s="35"/>
-      <c r="J8" s="36"/>
-      <c r="K8" s="35"/>
-      <c r="L8" s="35"/>
-      <c r="M8" s="35"/>
-      <c r="N8" s="59">
+      <c r="I8" s="23"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="43">
         <v>49.5</v>
       </c>
-      <c r="O8" s="35" t="s">
-        <v>39</v>
-      </c>
-      <c r="P8" s="35" t="s">
-        <v>40</v>
+      <c r="O8" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="P8" s="23" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
@@ -1148,35 +1207,37 @@
         <v>3</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D9" s="6">
         <v>5.5258047508047498E-2</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E9" s="11">
         <v>0.43147743922743897</v>
       </c>
-      <c r="G9" s="15">
+      <c r="G9" s="11">
+        <f t="shared" si="1"/>
+        <v>0.43147743922743897</v>
+      </c>
+      <c r="H9" s="19">
         <f t="shared" si="0"/>
-        <v>0.43147743922743897</v>
-      </c>
-      <c r="H9" s="29">
-        <f>D9*G9</f>
         <v>2.3842600835480499E-2</v>
       </c>
-      <c r="I9" s="33"/>
-      <c r="J9" s="33"/>
-      <c r="K9" s="33"/>
+      <c r="I9" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
       <c r="L9" s="7"/>
-      <c r="M9" s="33"/>
-      <c r="N9" s="60">
+      <c r="M9" s="21"/>
+      <c r="N9" s="44">
         <v>95</v>
       </c>
-      <c r="O9" s="47" t="s">
-        <v>54</v>
-      </c>
-      <c r="P9" s="47" t="s">
-        <v>40</v>
+      <c r="O9" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="P9" s="31" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
@@ -1186,36 +1247,36 @@
       <c r="B10" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>15</v>
+      <c r="C10" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="D10" s="6">
-        <v>-4.9116161616161802E-3</v>
-      </c>
-      <c r="E10" s="15">
-        <v>0.47640782828282802</v>
-      </c>
-      <c r="G10" s="15">
+        <v>0.203059861285667</v>
+      </c>
+      <c r="E10" s="17">
+        <v>0.50926139272913395</v>
+      </c>
+      <c r="G10" s="17">
+        <f t="shared" si="1"/>
+        <v>1.0185227854582679</v>
+      </c>
+      <c r="H10" s="19">
         <f t="shared" si="0"/>
-        <v>0.47640782828282802</v>
-      </c>
-      <c r="H10" s="29">
-        <f>D10*G10</f>
-        <v>-2.339932388914404E-3</v>
-      </c>
-      <c r="I10" s="32"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="32"/>
-      <c r="L10" s="32"/>
-      <c r="M10" s="32"/>
-      <c r="N10" s="61">
+        <v>0.20682109553144706</v>
+      </c>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="45">
         <v>82.5</v>
       </c>
-      <c r="O10" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="P10" s="32" t="s">
-        <v>40</v>
+      <c r="O10" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="P10" s="20" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
@@ -1223,195 +1284,195 @@
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D11" s="6">
         <v>8.2133490344480198E-2</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E11" s="11">
         <v>0.41494910756655701</v>
       </c>
-      <c r="G11" s="15">
+      <c r="G11" s="11">
+        <f t="shared" si="1"/>
+        <v>0.41494910756655701</v>
+      </c>
+      <c r="H11" s="19">
         <f t="shared" si="0"/>
-        <v>0.41494910756655701</v>
-      </c>
-      <c r="H11" s="29">
-        <f>D11*G11</f>
         <v>3.4081218519768482E-2</v>
       </c>
-      <c r="I11" s="33"/>
-      <c r="J11" s="33"/>
-      <c r="K11" s="33"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
       <c r="L11" s="7"/>
-      <c r="M11" s="33"/>
-      <c r="N11" s="60">
+      <c r="M11" s="21"/>
+      <c r="N11" s="44">
         <v>100</v>
       </c>
-      <c r="O11" s="47" t="s">
-        <v>41</v>
-      </c>
-      <c r="P11" s="47" t="s">
-        <v>40</v>
+      <c r="O11" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="P11" s="31" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A12" s="37">
+      <c r="A12" s="25">
         <v>5</v>
       </c>
-      <c r="B12" s="37" t="s">
+      <c r="B12" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="38" t="s">
+      <c r="C12" s="26" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="6">
         <v>7.5195158871629406E-2</v>
       </c>
-      <c r="E12" s="25">
+      <c r="E12" s="17">
         <v>0.54452720663504905</v>
       </c>
-      <c r="F12" s="37"/>
-      <c r="G12" s="25">
+      <c r="F12" s="25"/>
+      <c r="G12" s="17">
+        <f t="shared" si="1"/>
+        <v>1.0890544132700981</v>
+      </c>
+      <c r="H12" s="19">
         <f t="shared" si="0"/>
-        <v>1.0890544132700981</v>
-      </c>
-      <c r="H12" s="29">
-        <f>D12*G12</f>
         <v>8.1891619625694176E-2</v>
       </c>
-      <c r="I12" s="32"/>
-      <c r="J12" s="32"/>
-      <c r="K12" s="32"/>
-      <c r="L12" s="43"/>
-      <c r="M12" s="32"/>
-      <c r="N12" s="61">
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="27"/>
+      <c r="M12" s="20"/>
+      <c r="N12" s="45">
         <v>95</v>
       </c>
-      <c r="O12" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="P12" s="32" t="s">
-        <v>40</v>
+      <c r="O12" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="P12" s="20" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A13" s="57">
+      <c r="A13" s="41">
         <v>6</v>
       </c>
-      <c r="B13" s="57" t="s">
-        <v>45</v>
+      <c r="B13" s="41" t="s">
+        <v>37</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D13" s="6">
         <v>-0.113888888888888</v>
       </c>
-      <c r="E13" s="25">
+      <c r="E13" s="17">
         <v>0.65277777777777701</v>
       </c>
-      <c r="G13" s="25">
+      <c r="G13" s="17">
+        <f t="shared" si="1"/>
+        <v>1.305555555555554</v>
+      </c>
+      <c r="H13" s="19">
         <f t="shared" si="0"/>
-        <v>1.305555555555554</v>
-      </c>
-      <c r="H13" s="29">
-        <f>D13*G13</f>
         <v>-0.14868827160493694</v>
       </c>
-      <c r="I13" s="33"/>
+      <c r="I13" s="21"/>
       <c r="J13" s="7"/>
-      <c r="K13" s="33"/>
-      <c r="L13" s="33"/>
-      <c r="M13" s="33"/>
-      <c r="N13" s="60">
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="44">
         <v>100</v>
       </c>
-      <c r="O13" s="47" t="s">
-        <v>47</v>
-      </c>
-      <c r="P13" s="47" t="s">
+      <c r="O13" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="P13" s="31" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A14" s="41">
+        <v>7</v>
+      </c>
+      <c r="B14" s="41" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A14" s="57">
-        <v>7</v>
-      </c>
-      <c r="B14" s="57" t="s">
-        <v>48</v>
-      </c>
       <c r="C14" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D14" s="6">
         <v>0.14939723320158099</v>
       </c>
-      <c r="E14" s="15">
+      <c r="E14" s="11">
         <v>0.37066205533596802</v>
       </c>
-      <c r="G14" s="15">
+      <c r="G14" s="11">
+        <f t="shared" si="1"/>
+        <v>0.37066205533596802</v>
+      </c>
+      <c r="H14" s="19">
         <f t="shared" si="0"/>
-        <v>0.37066205533596802</v>
-      </c>
-      <c r="H14" s="29">
-        <f>D14*G14</f>
         <v>5.5375885520004935E-2</v>
       </c>
-      <c r="I14" s="32"/>
-      <c r="J14" s="32"/>
-      <c r="K14" s="32"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
       <c r="L14" s="7"/>
-      <c r="M14" s="32"/>
-      <c r="N14" s="61">
+      <c r="M14" s="20"/>
+      <c r="N14" s="45">
         <v>75</v>
       </c>
-      <c r="O14" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="P14" s="32" t="s">
-        <v>40</v>
+      <c r="O14" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="P14" s="20" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A15" s="57">
+      <c r="A15" s="41">
         <v>8</v>
       </c>
-      <c r="B15" s="57" t="s">
-        <v>51</v>
+      <c r="B15" s="41" t="s">
+        <v>43</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="D15" s="6">
         <v>1.4011491728883E-2</v>
       </c>
-      <c r="E15" s="15">
+      <c r="E15" s="11">
         <v>0.38156382667252198</v>
       </c>
-      <c r="G15" s="15">
+      <c r="G15" s="11">
+        <f t="shared" si="1"/>
+        <v>0.38156382667252198</v>
+      </c>
+      <c r="H15" s="19">
         <f t="shared" si="0"/>
-        <v>0.38156382667252198</v>
-      </c>
-      <c r="H15" s="29">
-        <f>D15*G15</f>
         <v>5.3462784014629882E-3</v>
       </c>
-      <c r="I15" s="33"/>
-      <c r="J15" s="33"/>
-      <c r="K15" s="33"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
       <c r="L15" s="7"/>
-      <c r="M15" s="33"/>
-      <c r="N15" s="60">
+      <c r="M15" s="21"/>
+      <c r="N15" s="44">
         <v>100</v>
       </c>
-      <c r="O15" s="47" t="s">
-        <v>52</v>
-      </c>
-      <c r="P15" s="47" t="s">
-        <v>40</v>
+      <c r="O15" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="P15" s="31" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
@@ -1419,8 +1480,8 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C17" s="2"/>
-      <c r="O17" s="47" t="s">
-        <v>55</v>
+      <c r="O17" s="31" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
@@ -1428,17 +1489,17 @@
     </row>
     <row r="19" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C19" s="2"/>
-      <c r="I19" s="53">
+      <c r="I19" s="37">
         <v>-1</v>
       </c>
-      <c r="J19" s="51">
+      <c r="J19" s="35">
         <v>0</v>
       </c>
-      <c r="K19" s="54" t="s">
-        <v>29</v>
-      </c>
-      <c r="L19" s="52" t="s">
-        <v>28</v>
+      <c r="K19" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="L19" s="36" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:15" s="6" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
@@ -1462,14 +1523,14 @@
       <c r="G21"/>
       <c r="H21"/>
       <c r="I21"/>
-      <c r="J21" s="53">
+      <c r="J21" s="37">
         <v>0</v>
       </c>
-      <c r="K21" s="54" t="s">
-        <v>29</v>
-      </c>
-      <c r="L21" s="52" t="s">
-        <v>30</v>
+      <c r="K21" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="L21" s="36" t="s">
+        <v>22</v>
       </c>
       <c r="M21"/>
     </row>
@@ -1494,8 +1555,8 @@
       <c r="G23"/>
       <c r="H23"/>
       <c r="I23"/>
-      <c r="J23" s="55" t="s">
-        <v>32</v>
+      <c r="J23" s="39" t="s">
+        <v>24</v>
       </c>
       <c r="K23"/>
       <c r="L23"/>
@@ -1509,8 +1570,8 @@
       <c r="G24"/>
       <c r="H24"/>
       <c r="I24"/>
-      <c r="J24" s="55" t="s">
-        <v>31</v>
+      <c r="J24" s="39" t="s">
+        <v>23</v>
       </c>
       <c r="K24"/>
       <c r="L24"/>
@@ -1667,447 +1728,989 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:E3"/>
+    <sheetView zoomScale="101" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="63.44140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.77734375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="9.77734375" customWidth="1"/>
+    <col min="3" max="3" width="52.77734375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5546875" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.88671875" customWidth="1"/>
+    <col min="6" max="6" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.88671875" customWidth="1"/>
+    <col min="9" max="9" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.44140625" customWidth="1"/>
+    <col min="11" max="12" width="5.44140625" customWidth="1"/>
+    <col min="13" max="13" width="5.5546875" customWidth="1"/>
+    <col min="14" max="15" width="5.44140625" customWidth="1"/>
+    <col min="16" max="16" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="20.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A1" s="4"/>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="53" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" s="54" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="H1" s="50" t="s">
+        <v>53</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="J1" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="K1" s="22">
+        <v>-2</v>
+      </c>
+      <c r="L1" s="22">
+        <v>-1</v>
+      </c>
+      <c r="M1" s="22">
+        <v>0</v>
+      </c>
+      <c r="N1" s="22">
         <v>1</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="O1" s="22">
         <v>2</v>
       </c>
-      <c r="G1" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="J1" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="K1" s="34">
-        <v>-2</v>
-      </c>
-      <c r="L1" s="34">
+      <c r="P1" s="47" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q1" s="48"/>
+      <c r="R1" s="48"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A2" s="8">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="55">
+        <v>0.53800000000000003</v>
+      </c>
+      <c r="E2" s="55">
+        <v>0.46200000000000002</v>
+      </c>
+      <c r="F2" s="55">
+        <v>0</v>
+      </c>
+      <c r="G2" s="55">
+        <v>-0.5423</v>
+      </c>
+      <c r="H2" s="59" t="s">
+        <v>54</v>
+      </c>
+      <c r="I2" s="10">
         <v>-1</v>
       </c>
-      <c r="M1" s="34">
+      <c r="J2" s="19">
+        <f t="shared" ref="J2:J15" si="0">F2*I2</f>
         <v>0</v>
       </c>
-      <c r="N1" s="34">
+      <c r="K2" s="7"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="46"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A3" s="8">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="55">
+        <v>0</v>
+      </c>
+      <c r="E3" s="55">
+        <v>0.625</v>
+      </c>
+      <c r="F3" s="55">
+        <v>0.375</v>
+      </c>
+      <c r="G3" s="55">
+        <v>0.63690000000000002</v>
+      </c>
+      <c r="H3" s="61" t="s">
+        <v>52</v>
+      </c>
+      <c r="I3" s="10">
         <v>1</v>
       </c>
-      <c r="O1" s="34">
+      <c r="J3" s="19">
+        <f t="shared" si="0"/>
+        <v>0.375</v>
+      </c>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="46"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A4" s="8">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="55">
+        <v>0</v>
+      </c>
+      <c r="E4" s="55">
+        <v>0.68700000000000006</v>
+      </c>
+      <c r="F4" s="55">
+        <v>0.313</v>
+      </c>
+      <c r="G4" s="55">
+        <v>0.49270000000000003</v>
+      </c>
+      <c r="H4" s="61" t="s">
+        <v>52</v>
+      </c>
+      <c r="I4" s="10">
+        <v>0.39</v>
+      </c>
+      <c r="J4" s="19">
+        <f t="shared" si="0"/>
+        <v>0.12207</v>
+      </c>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="46"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A5" s="8">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="55">
+        <v>0</v>
+      </c>
+      <c r="E5" s="55">
+        <v>0.51900000000000002</v>
+      </c>
+      <c r="F5" s="55">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="G5" s="55">
+        <v>0.57189999999999996</v>
+      </c>
+      <c r="H5" s="61" t="s">
+        <v>52</v>
+      </c>
+      <c r="I5" s="10">
+        <v>1</v>
+      </c>
+      <c r="J5" s="19">
+        <f t="shared" si="0"/>
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="K5" s="31"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="31"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="46"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A6" s="8">
+        <v>5</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="55">
+        <v>0</v>
+      </c>
+      <c r="E6" s="55">
+        <v>1</v>
+      </c>
+      <c r="F6" s="55">
+        <v>0</v>
+      </c>
+      <c r="G6" s="55">
+        <v>0</v>
+      </c>
+      <c r="H6" s="51" t="s">
+        <v>57</v>
+      </c>
+      <c r="I6" s="10">
+        <v>0</v>
+      </c>
+      <c r="J6" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="20"/>
+      <c r="O6" s="20"/>
+      <c r="P6" s="46"/>
+    </row>
+    <row r="7" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="8">
+        <v>6</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="55">
+        <v>0</v>
+      </c>
+      <c r="E7" s="55">
+        <v>0.84</v>
+      </c>
+      <c r="F7" s="55">
+        <v>0.16</v>
+      </c>
+      <c r="G7" s="55">
+        <v>0.2263</v>
+      </c>
+      <c r="H7" s="61" t="s">
+        <v>52</v>
+      </c>
+      <c r="I7" s="10">
+        <v>0</v>
+      </c>
+      <c r="J7" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K7" s="31"/>
+      <c r="L7" s="31"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="31"/>
+      <c r="O7" s="31"/>
+      <c r="P7" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q7" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="R7" s="40" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="56">
+        <v>1</v>
+      </c>
+      <c r="B8" s="56" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="57" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="58">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="E8" s="58">
+        <v>0.82</v>
+      </c>
+      <c r="F8" s="58">
+        <v>0.122</v>
+      </c>
+      <c r="G8" s="58">
+        <v>0.98270000000000002</v>
+      </c>
+      <c r="H8" s="60" t="s">
+        <v>52</v>
+      </c>
+      <c r="I8" s="14">
+        <v>-1.3959686147186101E-2</v>
+      </c>
+      <c r="J8" s="32">
+        <f t="shared" si="0"/>
+        <v>-1.7030817099567043E-3</v>
+      </c>
+      <c r="K8" s="23"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="23"/>
+      <c r="P8" s="43">
+        <v>49.5</v>
+      </c>
+      <c r="Q8" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="R8" s="23" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A9">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="12">
-        <v>1</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="14">
-        <v>-1</v>
-      </c>
-      <c r="E2" s="25">
-        <v>1</v>
-      </c>
-      <c r="F2" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="25">
-        <f>E2-0.5</f>
-        <v>0.5</v>
-      </c>
-      <c r="H2" s="27">
-        <f>G2*4</f>
-        <v>2</v>
-      </c>
-      <c r="J2" s="29">
-        <f>D2*H2</f>
-        <v>-2</v>
-      </c>
-      <c r="K2" s="7"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32"/>
-      <c r="O2" s="32"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="12">
-        <v>2</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="14">
-        <v>1</v>
-      </c>
-      <c r="E3" s="15">
-        <v>0.3</v>
-      </c>
-      <c r="F3" s="12"/>
-      <c r="G3" s="15">
-        <f t="shared" ref="G3:G9" si="0">E3-0.5</f>
-        <v>-0.2</v>
-      </c>
-      <c r="H3" s="16">
-        <f t="shared" ref="H3:H9" si="1">G3*4</f>
-        <v>-0.8</v>
-      </c>
-      <c r="J3" s="29">
-        <f t="shared" ref="J3:J9" si="2">D3*H3</f>
-        <v>-0.8</v>
-      </c>
-      <c r="K3" s="33"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="33"/>
-      <c r="N3" s="33"/>
-      <c r="O3" s="33"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="12">
+      <c r="B9" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="14">
-        <v>1</v>
-      </c>
-      <c r="E4" s="15">
-        <v>1</v>
-      </c>
-      <c r="F4" s="12"/>
-      <c r="G4" s="15">
+      <c r="C9" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" s="55">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="E9" s="55">
+        <v>0.86199999999999999</v>
+      </c>
+      <c r="F9" s="55">
+        <v>6.2E-2</v>
+      </c>
+      <c r="G9" s="55">
+        <v>-0.9819</v>
+      </c>
+      <c r="H9" s="59" t="s">
+        <v>54</v>
+      </c>
+      <c r="I9" s="6">
+        <v>5.5258047508047498E-2</v>
+      </c>
+      <c r="J9" s="19">
         <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="H4" s="16">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="J4" s="29">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="K4" s="32"/>
-      <c r="L4" s="32"/>
-      <c r="M4" s="32"/>
-      <c r="N4" s="32"/>
-      <c r="O4" s="7"/>
-    </row>
-    <row r="5" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="12">
+        <v>3.4259989454989447E-3</v>
+      </c>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="21"/>
+      <c r="P9" s="44">
+        <v>95</v>
+      </c>
+      <c r="Q9" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="R9" s="31" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="14">
-        <v>0</v>
-      </c>
-      <c r="E5" s="22">
-        <v>0</v>
-      </c>
-      <c r="F5" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="22">
+      <c r="C10" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="55">
+        <v>2.7E-2</v>
+      </c>
+      <c r="E10" s="55">
+        <v>0.92300000000000004</v>
+      </c>
+      <c r="F10" s="55">
+        <v>0.05</v>
+      </c>
+      <c r="G10" s="55">
+        <v>0.89629999999999999</v>
+      </c>
+      <c r="H10" s="61" t="s">
+        <v>52</v>
+      </c>
+      <c r="I10" s="6">
+        <v>0.203059861285667</v>
+      </c>
+      <c r="J10" s="19">
         <f t="shared" si="0"/>
-        <v>-0.5</v>
-      </c>
-      <c r="H5" s="24">
-        <f t="shared" si="1"/>
-        <v>-2</v>
-      </c>
-      <c r="J5" s="29">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K5" s="33"/>
-      <c r="L5" s="33"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="33"/>
-      <c r="O5" s="33"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="17">
-        <v>1</v>
-      </c>
-      <c r="B6" s="17" t="s">
+        <v>1.015299306428335E-2</v>
+      </c>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="20"/>
+      <c r="P10" s="45">
+        <v>82.5</v>
+      </c>
+      <c r="Q10" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="R10" s="20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>4</v>
+      </c>
+      <c r="B11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="55">
+        <v>0.112</v>
+      </c>
+      <c r="E11" s="55">
+        <v>0.81200000000000006</v>
+      </c>
+      <c r="F11" s="55">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="G11" s="55">
+        <v>-0.99660000000000004</v>
+      </c>
+      <c r="H11" s="59" t="s">
+        <v>54</v>
+      </c>
+      <c r="I11" s="6">
+        <v>8.2133490344480198E-2</v>
+      </c>
+      <c r="J11" s="19">
+        <f t="shared" si="0"/>
+        <v>6.3242787565249755E-3</v>
+      </c>
+      <c r="K11" s="21"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="21"/>
+      <c r="P11" s="44">
+        <v>100</v>
+      </c>
+      <c r="Q11" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="R11" s="31" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A12" s="25">
+        <v>5</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="55">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="E12" s="55">
+        <v>0.77900000000000003</v>
+      </c>
+      <c r="F12" s="55">
+        <v>0.128</v>
+      </c>
+      <c r="G12" s="55">
+        <v>0.99790000000000001</v>
+      </c>
+      <c r="H12" s="61" t="s">
+        <v>52</v>
+      </c>
+      <c r="I12" s="6">
+        <v>7.5195158871629406E-2</v>
+      </c>
+      <c r="J12" s="19">
+        <f t="shared" si="0"/>
+        <v>9.6249803355685642E-3</v>
+      </c>
+      <c r="K12" s="20"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="20"/>
+      <c r="N12" s="27"/>
+      <c r="O12" s="20"/>
+      <c r="P12" s="45">
+        <v>95</v>
+      </c>
+      <c r="Q12" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="R12" s="20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A13" s="41">
+        <v>6</v>
+      </c>
+      <c r="B13" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="55">
+        <v>0.09</v>
+      </c>
+      <c r="E13" s="55">
+        <v>0.76</v>
+      </c>
+      <c r="F13" s="55">
+        <v>0.14899999999999999</v>
+      </c>
+      <c r="G13" s="55">
+        <v>0.93859999999999999</v>
+      </c>
+      <c r="H13" s="61" t="s">
+        <v>52</v>
+      </c>
+      <c r="I13" s="6">
+        <v>-0.113888888888888</v>
+      </c>
+      <c r="J13" s="19">
+        <f t="shared" si="0"/>
+        <v>-1.6969444444444311E-2</v>
+      </c>
+      <c r="K13" s="21"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="21"/>
+      <c r="P13" s="44">
+        <v>100</v>
+      </c>
+      <c r="Q13" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="R13" s="31" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A14" s="41">
+        <v>7</v>
+      </c>
+      <c r="B14" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="55">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="E14" s="55">
+        <v>0.85599999999999998</v>
+      </c>
+      <c r="F14" s="55">
+        <v>0.109</v>
+      </c>
+      <c r="G14" s="55">
+        <v>0.995</v>
+      </c>
+      <c r="H14" s="61" t="s">
+        <v>52</v>
+      </c>
+      <c r="I14" s="6">
+        <v>0.14939723320158099</v>
+      </c>
+      <c r="J14" s="19">
+        <f t="shared" si="0"/>
+        <v>1.6284298418972328E-2</v>
+      </c>
+      <c r="K14" s="20"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="20"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="20"/>
+      <c r="P14" s="45">
+        <v>75</v>
+      </c>
+      <c r="Q14" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="R14" s="20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A15" s="41">
         <v>8</v>
       </c>
-      <c r="C6" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="19">
-        <v>-1.3959686147186101E-2</v>
-      </c>
-      <c r="E6" s="20">
-        <v>0.43129437229437201</v>
-      </c>
-      <c r="F6" s="17"/>
-      <c r="G6" s="20">
+      <c r="B15" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="55">
+        <v>0.123</v>
+      </c>
+      <c r="E15" s="55">
+        <v>0.754</v>
+      </c>
+      <c r="F15" s="55">
+        <v>0.122</v>
+      </c>
+      <c r="G15" s="55">
+        <v>-0.6915</v>
+      </c>
+      <c r="H15" s="59" t="s">
+        <v>54</v>
+      </c>
+      <c r="I15" s="6">
+        <v>1.4011491728883E-2</v>
+      </c>
+      <c r="J15" s="19">
         <f t="shared" si="0"/>
-        <v>-6.8705627705627992E-2</v>
-      </c>
-      <c r="H6" s="21">
-        <f t="shared" si="1"/>
-        <v>-0.27482251082251197</v>
-      </c>
-      <c r="I6" s="17"/>
-      <c r="J6" s="30">
-        <f t="shared" si="2"/>
-        <v>3.8364359972639225E-3</v>
-      </c>
-      <c r="K6" s="35"/>
-      <c r="L6" s="35"/>
-      <c r="M6" s="35"/>
-      <c r="N6" s="36"/>
-      <c r="O6" s="35"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>2</v>
-      </c>
-      <c r="B7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="6">
-        <v>5.5258047508047498E-2</v>
-      </c>
-      <c r="E7" s="8">
-        <v>0.43147743922743897</v>
-      </c>
-      <c r="G7" s="8">
-        <f t="shared" si="0"/>
-        <v>-6.8522560772561025E-2</v>
-      </c>
-      <c r="H7" s="11">
-        <f t="shared" si="1"/>
-        <v>-0.2740902430902441</v>
-      </c>
-      <c r="J7" s="31">
-        <f t="shared" si="2"/>
-        <v>-1.5145691674172996E-2</v>
-      </c>
-      <c r="K7" s="33"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="33"/>
-      <c r="N7" s="33"/>
-      <c r="O7" s="33"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>3</v>
-      </c>
-      <c r="B8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="6">
-        <v>-4.9116161616161802E-3</v>
-      </c>
-      <c r="E8" s="8">
-        <v>0.47640782828282802</v>
-      </c>
-      <c r="G8" s="8">
-        <f t="shared" si="0"/>
-        <v>-2.3592171717171984E-2</v>
-      </c>
-      <c r="H8" s="11">
-        <f t="shared" si="1"/>
-        <v>-9.4368686868687934E-2</v>
-      </c>
-      <c r="J8" s="31">
-        <f t="shared" si="2"/>
-        <v>4.6350276757474424E-4</v>
-      </c>
-      <c r="K8" s="32"/>
-      <c r="L8" s="32"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="32"/>
-      <c r="O8" s="32"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>4</v>
-      </c>
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="6">
-        <v>0.1125</v>
-      </c>
-      <c r="E9" s="8">
-        <v>0.43333333333333302</v>
-      </c>
-      <c r="G9" s="8">
-        <f t="shared" si="0"/>
-        <v>-6.6666666666666985E-2</v>
-      </c>
-      <c r="H9" s="11">
-        <f t="shared" si="1"/>
-        <v>-0.26666666666666794</v>
-      </c>
-      <c r="J9" s="31">
-        <f t="shared" si="2"/>
-        <v>-3.0000000000000145E-2</v>
-      </c>
-      <c r="K9" s="33"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="33"/>
-      <c r="N9" s="33"/>
-      <c r="O9" s="33"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" s="37">
-        <v>5</v>
-      </c>
-      <c r="B10" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="38" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="39">
-        <v>7.5195158871629406E-2</v>
-      </c>
-      <c r="E10" s="39">
-        <v>0.54452720663504905</v>
-      </c>
-      <c r="F10" s="37"/>
-      <c r="G10" s="40">
-        <f>E10-0.5</f>
-        <v>4.4527206635049055E-2</v>
-      </c>
-      <c r="H10" s="41">
-        <f>G10*4</f>
-        <v>0.17810882654019622</v>
-      </c>
-      <c r="I10" s="37"/>
-      <c r="J10" s="42">
-        <f>D10*H10</f>
-        <v>1.3392921508129539E-2</v>
-      </c>
-      <c r="K10" s="32"/>
-      <c r="L10" s="32"/>
-      <c r="M10" s="32"/>
-      <c r="N10" s="43"/>
-      <c r="O10" s="32"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C13" s="2"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C14" s="2"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C15" s="2"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+        <v>1.709401990923726E-3</v>
+      </c>
+      <c r="K15" s="21"/>
+      <c r="L15" s="21"/>
+      <c r="M15" s="21"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="21"/>
+      <c r="P15" s="44">
+        <v>100</v>
+      </c>
+      <c r="Q15" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="R15" s="31" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="C16" s="2"/>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D16" s="52"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="49"/>
+      <c r="H16" s="49"/>
+      <c r="I16" s="49"/>
+      <c r="J16" s="49"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C17" s="2"/>
-    </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D17" s="52"/>
+      <c r="E17" s="52"/>
+      <c r="F17" s="49"/>
+      <c r="G17" s="49"/>
+      <c r="H17" s="49"/>
+      <c r="I17" s="49"/>
+      <c r="J17" s="49"/>
+      <c r="Q17" s="31" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C18" s="2"/>
-    </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D18" s="52"/>
+      <c r="E18" s="52"/>
+      <c r="F18" s="49"/>
+      <c r="G18" s="49"/>
+      <c r="H18" s="49"/>
+      <c r="I18" s="49"/>
+      <c r="J18" s="49"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C19" s="2"/>
     </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20"/>
+      <c r="B20"/>
       <c r="C20" s="2"/>
-    </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="F20"/>
+      <c r="G20"/>
+      <c r="H20"/>
+      <c r="I20"/>
+      <c r="J20"/>
+      <c r="K20"/>
+      <c r="L20"/>
+      <c r="M20"/>
+      <c r="N20"/>
+      <c r="O20"/>
+    </row>
+    <row r="21" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21"/>
+      <c r="B21"/>
       <c r="C21" s="2"/>
-    </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="F21"/>
+      <c r="G21"/>
+      <c r="H21"/>
+      <c r="I21"/>
+      <c r="J21"/>
+      <c r="K21"/>
+      <c r="L21"/>
+      <c r="M21"/>
+      <c r="N21"/>
+      <c r="O21"/>
+      <c r="P21"/>
+    </row>
+    <row r="22" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22"/>
+      <c r="B22"/>
       <c r="C22" s="2"/>
-    </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="F22"/>
+      <c r="G22"/>
+      <c r="H22"/>
+      <c r="I22"/>
+      <c r="J22"/>
+      <c r="K22"/>
+      <c r="L22"/>
+      <c r="M22"/>
+      <c r="N22"/>
+      <c r="O22"/>
+      <c r="P22"/>
+    </row>
+    <row r="23" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23"/>
+      <c r="B23"/>
       <c r="C23" s="2"/>
-    </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="F23"/>
+      <c r="G23"/>
+      <c r="H23"/>
+      <c r="I23"/>
+      <c r="J23"/>
+      <c r="K23"/>
+      <c r="L23"/>
+      <c r="M23"/>
+      <c r="N23"/>
+      <c r="O23"/>
+      <c r="P23"/>
+    </row>
+    <row r="24" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24"/>
+      <c r="B24"/>
       <c r="C24" s="2"/>
-    </row>
-    <row r="25" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="F24"/>
+      <c r="G24"/>
+      <c r="H24"/>
+      <c r="I24"/>
+      <c r="J24"/>
+      <c r="K24"/>
+      <c r="L24"/>
+      <c r="M24"/>
+      <c r="N24"/>
+      <c r="O24"/>
+      <c r="P24"/>
+    </row>
+    <row r="25" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25"/>
+      <c r="B25"/>
       <c r="C25" s="2"/>
-    </row>
-    <row r="26" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="F25"/>
+      <c r="G25"/>
+      <c r="H25"/>
+      <c r="I25"/>
+      <c r="J25"/>
+      <c r="K25"/>
+      <c r="L25"/>
+      <c r="M25"/>
+      <c r="N25"/>
+      <c r="O25"/>
+      <c r="P25"/>
+    </row>
+    <row r="26" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26"/>
+      <c r="B26"/>
       <c r="C26" s="2"/>
-    </row>
-    <row r="27" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="F26"/>
+      <c r="G26"/>
+      <c r="H26"/>
+      <c r="I26"/>
+      <c r="J26"/>
+      <c r="K26"/>
+      <c r="L26"/>
+      <c r="M26"/>
+      <c r="N26"/>
+      <c r="O26"/>
+      <c r="P26"/>
+    </row>
+    <row r="27" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27"/>
+      <c r="B27"/>
       <c r="C27" s="2"/>
-    </row>
-    <row r="28" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="F27"/>
+      <c r="G27"/>
+      <c r="H27"/>
+      <c r="I27"/>
+      <c r="J27"/>
+      <c r="K27"/>
+      <c r="L27"/>
+      <c r="M27"/>
+      <c r="N27"/>
+      <c r="O27"/>
+      <c r="P27"/>
+    </row>
+    <row r="28" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28"/>
+      <c r="B28"/>
       <c r="C28" s="2"/>
-    </row>
-    <row r="30" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="F28"/>
+      <c r="G28"/>
+      <c r="H28"/>
+      <c r="I28"/>
+      <c r="J28"/>
+      <c r="K28"/>
+      <c r="L28"/>
+      <c r="M28"/>
+      <c r="N28"/>
+      <c r="O28"/>
+      <c r="P28"/>
+    </row>
+    <row r="29" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29"/>
+      <c r="B29"/>
+      <c r="C29" s="2"/>
+      <c r="F29"/>
+      <c r="G29"/>
+      <c r="H29"/>
+      <c r="I29"/>
+      <c r="J29"/>
+      <c r="K29"/>
+      <c r="L29"/>
+      <c r="M29"/>
+      <c r="N29"/>
+      <c r="O29"/>
+      <c r="P29"/>
+    </row>
+    <row r="30" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30"/>
+      <c r="B30"/>
       <c r="C30" s="2"/>
-    </row>
-    <row r="31" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="F30"/>
+      <c r="G30"/>
+      <c r="H30"/>
+      <c r="I30"/>
+      <c r="J30"/>
+      <c r="K30"/>
+      <c r="L30"/>
+      <c r="M30"/>
+      <c r="N30"/>
+      <c r="O30"/>
+    </row>
+    <row r="31" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31"/>
+      <c r="B31"/>
       <c r="C31" s="2"/>
-    </row>
-    <row r="32" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C32" s="2"/>
+      <c r="F31"/>
+      <c r="G31"/>
+      <c r="H31"/>
+      <c r="I31"/>
+      <c r="J31"/>
+      <c r="K31"/>
+      <c r="L31"/>
+      <c r="M31"/>
+      <c r="N31"/>
+      <c r="O31"/>
+    </row>
+    <row r="33" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33"/>
+      <c r="B33"/>
+      <c r="C33" s="2"/>
+      <c r="F33"/>
+      <c r="G33"/>
+      <c r="H33"/>
+      <c r="I33"/>
+      <c r="J33"/>
+      <c r="K33"/>
+      <c r="L33"/>
+      <c r="M33"/>
+      <c r="N33"/>
+      <c r="O33"/>
+    </row>
+    <row r="34" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A34"/>
+      <c r="B34"/>
+      <c r="C34" s="2"/>
+      <c r="F34"/>
+      <c r="G34"/>
+      <c r="H34"/>
+      <c r="I34"/>
+      <c r="J34"/>
+      <c r="K34"/>
+      <c r="L34"/>
+      <c r="M34"/>
+      <c r="N34"/>
+      <c r="O34"/>
+    </row>
+    <row r="35" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A35"/>
+      <c r="B35"/>
+      <c r="C35" s="2"/>
+      <c r="F35"/>
+      <c r="G35"/>
+      <c r="H35"/>
+      <c r="I35"/>
+      <c r="J35"/>
+      <c r="K35"/>
+      <c r="L35"/>
+      <c r="M35"/>
+      <c r="N35"/>
+      <c r="O35"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="P1:R1"/>
+  </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C10" r:id="rId1"/>
-    <hyperlink ref="C7" r:id="rId2"/>
-    <hyperlink ref="C8" r:id="rId3"/>
-    <hyperlink ref="C6" r:id="rId4"/>
+    <hyperlink ref="C12" r:id="rId1"/>
+    <hyperlink ref="C9" r:id="rId2"/>
+    <hyperlink ref="C10" r:id="rId3"/>
+    <hyperlink ref="C8" r:id="rId4"/>
+    <hyperlink ref="C11" r:id="rId5"/>
+    <hyperlink ref="C13" r:id="rId6"/>
+    <hyperlink ref="C14" r:id="rId7"/>
+    <hyperlink ref="C15" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
+  <legacyDrawing r:id="rId10"/>
 </worksheet>
 </file>